--- a/ONCHO/Entomological survey Survey/Nigeria/2023/april/ng_oncho_bsc_202304_2_bs_localisation.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/april/ng_oncho_bsc_202304_2_bs_localisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Nigeria\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\april\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF7A219-4186-4087-BAE7-DFD0AD108521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0888F-F0FE-4607-92B5-7C83C1CC6A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="164">
   <si>
     <t>type</t>
   </si>
@@ -351,10 +351,169 @@
     <t>HINNA</t>
   </si>
   <si>
-    <t>(2023 April) - 2. Breeding Site Survey Form</t>
-  </si>
-  <si>
-    <t>ng_oncho_bsc_202304_2_bs_localisation</t>
+    <t>ng_oncho_bsc_202304_2_bs_localisation_v2_gombe</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>GARKO</t>
+  </si>
+  <si>
+    <t>KULANI / DEGRE /SIKKAM</t>
+  </si>
+  <si>
+    <t>MWONA</t>
+  </si>
+  <si>
+    <t>BILLIRI SOUTH</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>GWANI / SHINGA / WADE</t>
+  </si>
+  <si>
+    <t>JAGALI NORTH</t>
+  </si>
+  <si>
+    <t>NOEC</t>
+  </si>
+  <si>
+    <t>Modelling Sites</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>GOM_AKK_N_001</t>
+  </si>
+  <si>
+    <t>GOM_AKK_N_002</t>
+  </si>
+  <si>
+    <t>GOM_AKK_N_003</t>
+  </si>
+  <si>
+    <t>GOM_BAL_N_004</t>
+  </si>
+  <si>
+    <t>GOM_BAL_N_005</t>
+  </si>
+  <si>
+    <t>GOM_BAL_N_006</t>
+  </si>
+  <si>
+    <t>GOM_BAL_N_007</t>
+  </si>
+  <si>
+    <t>GOM_BAL_N_008</t>
+  </si>
+  <si>
+    <t>GOM_BIL_N_009</t>
+  </si>
+  <si>
+    <t>GOM_DUK_N_010</t>
+  </si>
+  <si>
+    <t>GOM_DUK_N_011</t>
+  </si>
+  <si>
+    <t>GOM_DUK_N_012</t>
+  </si>
+  <si>
+    <t>GOM_DUK_N_013</t>
+  </si>
+  <si>
+    <t>GOM_DUK_N_014</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_015</t>
+  </si>
+  <si>
+    <t>GOM_FUN_N_016</t>
+  </si>
+  <si>
+    <t>GOM_SHO_N_017</t>
+  </si>
+  <si>
+    <t>GOM_KAL_N_018</t>
+  </si>
+  <si>
+    <t>GOM_KWA_N_019</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_020</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_021</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_022</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_023</t>
+  </si>
+  <si>
+    <t>GOM_NAF_N_024</t>
+  </si>
+  <si>
+    <t>GOM_SHO_N_025</t>
+  </si>
+  <si>
+    <t>GOM_YAL_N_026</t>
+  </si>
+  <si>
+    <t>GOM_SHO_N_027</t>
+  </si>
+  <si>
+    <t>GOM_AKK_M_028</t>
+  </si>
+  <si>
+    <t>GOM_AKK_M_029</t>
+  </si>
+  <si>
+    <t>GOM_AKK_M_030</t>
+  </si>
+  <si>
+    <t>GOM_BAL_M_031</t>
+  </si>
+  <si>
+    <t>GOM_BAL_M_032</t>
+  </si>
+  <si>
+    <t>GOM_BIL_M_033</t>
+  </si>
+  <si>
+    <t>GOM_BIL_M_034</t>
+  </si>
+  <si>
+    <t>GOM_BIL_M_035</t>
+  </si>
+  <si>
+    <t>GOM_YAM_M_036</t>
+  </si>
+  <si>
+    <t>GOM_YAM_M_037</t>
+  </si>
+  <si>
+    <t>select_one site</t>
+  </si>
+  <si>
+    <t>select_one site_id</t>
+  </si>
+  <si>
+    <t>community = ${s_community}</t>
+  </si>
+  <si>
+    <t>site = ${s_site}</t>
+  </si>
+  <si>
+    <t>allow_choice_duplicates</t>
+  </si>
+  <si>
+    <t>(2023 July) - 2. Gombe state - Breeding Site Survey Form V2</t>
   </si>
 </sst>
 </file>
@@ -374,7 +533,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,7 +541,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,7 +549,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -456,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -493,6 +652,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,11 +942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -913,8 +1076,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
+      <c r="A5" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>26</v>
@@ -932,10 +1095,13 @@
         <v>16</v>
       </c>
       <c r="K5" s="6"/>
+      <c r="L5" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
+      <c r="A6" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>28</v>
@@ -953,6 +1119,9 @@
         <v>16</v>
       </c>
       <c r="K6" s="6"/>
+      <c r="L6" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
@@ -1268,11 +1437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD44"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1284,7 +1453,7 @@
     <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -1303,8 +1472,11 @@
       <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1317,7 +1489,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1330,7 +1502,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1341,7 +1513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1355,7 +1527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1369,7 +1541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1383,7 +1555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1397,7 +1569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1411,7 +1583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1425,7 +1597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1439,7 +1611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +1625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1489,10 +1661,10 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" t="s">
@@ -1504,10 +1676,10 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -1518,10 +1690,10 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
@@ -1532,13 +1704,13 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1546,13 +1718,13 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1560,13 +1732,13 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1574,10 +1746,10 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
@@ -1588,10 +1760,10 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1602,13 +1774,13 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1616,13 +1788,13 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1630,13 +1802,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1644,13 +1816,13 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1658,13 +1830,13 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1672,13 +1844,13 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1686,13 +1858,13 @@
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1700,13 +1872,13 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1714,13 +1886,13 @@
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1728,13 +1900,13 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1742,13 +1914,13 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1756,13 +1928,13 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1770,13 +1942,13 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1784,13 +1956,13 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1798,13 +1970,13 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1812,13 +1984,13 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1826,13 +1998,13 @@
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1840,13 +2012,13 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1854,13 +2026,1175 @@
         <v>68</v>
       </c>
       <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E52" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="F88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" t="s">
+        <v>128</v>
+      </c>
+      <c r="G100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+      <c r="G107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="G108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+      <c r="G109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="G112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
+      <c r="G114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="G116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="G118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="G120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+      <c r="G123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+      <c r="G124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+      <c r="G128" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1871,19 +3205,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1893,16 +3228,22 @@
       <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>72</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
